--- a/usefull/files/Prices.xlsx
+++ b/usefull/files/Prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\! PYTON\PyCharm\Patterns\usefull\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721B39BA-03B6-4A53-B4FA-433E3FD17A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC20DED2-5804-451A-A949-5CDA43BD34EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Прайс-лист" sheetId="1" r:id="rId1"/>
@@ -688,16 +688,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7832,7 +7832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7845,23 +7847,23 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -7869,15 +7871,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -7920,7 +7922,8 @@
         <v>39.24</v>
       </c>
       <c r="G8" s="10">
-        <v>0</v>
+        <f>F8*E8</f>
+        <v>2432.88</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -9541,15 +9544,15 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="21" t="s">
         <v>167</v>
       </c>
       <c r="B86" s="22"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="18"/>
     </row>
     <row r="87" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
@@ -9590,15 +9593,15 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="18"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
@@ -9666,15 +9669,15 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="17"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="18"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
@@ -9763,15 +9766,15 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="17"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="18"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
@@ -9944,15 +9947,15 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="17"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="18"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
@@ -10398,15 +10401,15 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="16" t="s">
+      <c r="A129" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="17"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="18"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
@@ -10453,15 +10456,15 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="16" t="s">
+      <c r="A132" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="17"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="18"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
@@ -10781,15 +10784,15 @@
       </c>
     </row>
     <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="16" t="s">
+      <c r="A148" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="17"/>
+      <c r="B148" s="18"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="18"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
@@ -11450,23 +11453,23 @@
       </c>
       <c r="G180" s="15">
         <f>SUM(G6:G179)</f>
-        <v>0</v>
+        <v>2432.88</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="11">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="A89:G89"/>
     <mergeCell ref="A148:G148"/>
     <mergeCell ref="A93:G93"/>
     <mergeCell ref="A98:G98"/>
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A129:G129"/>
     <mergeCell ref="A132:G132"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="A89:G89"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
